--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="conversion_factors" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="operation_cost" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="cpi" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="cpi_meta" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -105,16 +108,81 @@
   </si>
   <si>
     <t xml:space="preserve">fuel_diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarmac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/m2/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tunnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new_warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guidebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFP_2022_03-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -188,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,6 +274,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,8 +308,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,7 +471,8 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="b">
+      <c r="B11" s="3" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C11" s="2"/>
@@ -530,7 +611,7 @@
       <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -578,6 +659,732 @@
       </c>
       <c r="B6" s="1" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-0.003</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.085</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,8 @@
     <sheet name="operation_cost" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="cpi" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="cpi_meta" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="gdp_growth" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="gdp_growth_meta" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -108,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">fuel_diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">section_type</t>
   </si>
   <si>
     <t xml:space="preserve">surface</t>
@@ -256,36 +261,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,7 +311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -601,7 +610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -673,479 +682,498 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="13.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="D2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="n">
         <v>4.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="G3" s="7" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="6" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F4" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="D10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="G10" s="7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E12" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D13" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="G15" s="7" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="D20" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>130.9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>130.9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="5" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1161,169 +1189,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="14.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="5" t="n">
         <v>2010</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="B2" s="8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="5" t="n">
         <v>2011</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="5" t="n">
         <v>0.039</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="5" t="n">
         <v>0.039</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="5" t="n">
         <v>2012</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="5" t="n">
         <v>0.036</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="5" t="n">
         <v>0.036</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.014</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.014</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="5" t="n">
         <v>-0.001</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="5" t="n">
         <v>-0.001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="5" t="n">
         <v>-0.003</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="5" t="n">
         <v>-0.003</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="5" t="n">
         <v>-0.005</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="5" t="n">
         <v>-0.005</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>0.013</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="5" t="n">
         <v>0.025</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="5" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="5" t="n">
         <v>0.027</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.027</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="5" t="n">
         <v>2020</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="5" t="n">
         <v>0.019</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.019</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="A13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>0.032</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="5" t="n">
         <v>2022</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.085</v>
       </c>
     </row>
@@ -1339,52 +1367,598 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>-0.044</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="15.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>44</v>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>45</v>
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,16 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="conversion_factors" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="operation_cost" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="cpi" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="cpi_meta" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="gdp_growth" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="gdp_growth_meta" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="vtts" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="passenger_occupancy" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="trip_purpose" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="cpi" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="cpi_meta" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="gdp_growth" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="gdp_growth_meta" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -158,6 +161,42 @@
   </si>
   <si>
     <t xml:space="preserve">new_warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gdp_growth_adjustment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass/veh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -609,6 +648,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="15.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -688,7 +787,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1189,6 +1288,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.701</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1206,13 +1548,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1385,34 +1727,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1441,13 +1783,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,66 +2241,6 @@
       </c>
       <c r="C42" s="5" t="n">
         <v>0.013</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="15.18"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,10 +14,13 @@
     <sheet name="vtts" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="passenger_occupancy" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="trip_purpose" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="cpi" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="cpi_meta" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="gdp_growth" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="gdp_growth_meta" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="voc_l" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="voc_t" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="fuel_ratio" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="cpi" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="cpi_meta" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="gdp_growth" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="gdp_growth_meta" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -197,6 +200,30 @@
   </si>
   <si>
     <t xml:space="preserve">train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/veh/km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hgv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/veh/h</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -357,7 +384,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
+      <selection pane="topLeft" activeCell="O39" activeCellId="1" sqref="E10:E11 O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,10 +680,734 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E10:E11 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="14.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.085</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="E10:E11 B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="E10:E11 D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>-0.044</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="E10:E11 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,34 +1418,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +1467,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="1" sqref="E10:E11 J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,7 +1539,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E10:E11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1295,7 +2046,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="E10:E11 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1386,8 +2137,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="E10:E11 H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1444,7 +2195,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="E10:E11 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1535,166 +2286,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="E10:E11 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="14.58"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>0.01</v>
+      <c r="D2" s="5" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.039</v>
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.036</v>
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.014</v>
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>-0.001</v>
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>-0.003</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.085</v>
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1713,48 +2429,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E10:E11 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.39"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.138</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>15.584</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.014</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.393</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1773,474 +2572,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>-0.058</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>-0.044</v>
+      <c r="C2" s="0" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.03</v>
+      <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.021</v>
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.053</v>
+      <c r="A5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.018</v>
+      <c r="A6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>2027</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>2031</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>2033</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>2034</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>2036</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>2037</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>2039</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2041</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>2042</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2043</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>2044</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>2046</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>2048</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <v>2049</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
-        <v>2051</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
-        <v>2052</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
-        <v>2053</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>2054</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
-        <v>2056</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>2057</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
-        <v>2058</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>2059</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
-        <v>2060</v>
-      </c>
-      <c r="B42" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>0.013</v>
+      <c r="A7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,18 @@
     <sheet name="operation_cost" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="vtts" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="passenger_occupancy" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="trip_purpose" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="voc_l" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="voc_l" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="trip_purpose" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="voc_t" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="fuel_ratio" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="cpi" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="cpi_meta" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="gdp_growth" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="gdp_growth_meta" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="fuel_consumption" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="fuel_density" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="fuel_cost" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="fuel_consumption_acceleration" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="cpi" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="cpi_meta" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="gdp_growth" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="gdp_growth_meta" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="83">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -196,34 +200,73 @@
     <t xml:space="preserve">bus</t>
   </si>
   <si>
+    <t xml:space="preserve">fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/veh/km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lgv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hgv</t>
+  </si>
+  <si>
     <t xml:space="preserve">transit</t>
   </si>
   <si>
     <t xml:space="preserve">train</t>
   </si>
   <si>
-    <t xml:space="preserve">fuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petrol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eur/veh/km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diesel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lgv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mgv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hgv</t>
-  </si>
-  <si>
     <t xml:space="preserve">eur/veh/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l/km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kg/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit_intravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roundabout_intravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roundabout_extravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersection_intravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersection_extravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interchange</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -248,12 +291,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -327,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,6 +408,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,7 +432,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O39" activeCellId="1" sqref="E10:E11 O39"/>
+      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,166 +728,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E10:E11 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="14.58"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>0.01</v>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>1.61E-005</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.039</v>
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1.61E-005</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.036</v>
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>1.61E-005</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.014</v>
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>-0.0217</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>-9.89E-007</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>-0.001</v>
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>-0.0217</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>-9.89E-007</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>-0.003</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>-0.005</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0.032</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.085</v>
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>-0.0217</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>-9.89E-007</v>
       </c>
     </row>
   </sheetData>
@@ -858,48 +913,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="E10:E11 B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.39"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>66</v>
+      <c r="C2" s="5" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -918,474 +970,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="E10:E11 D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="9.29"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>-0.058</v>
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>-0.044</v>
+        <v>0.523</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.053</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>2027</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.017</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>2031</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>2033</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>2034</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>2036</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>2037</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>2039</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2041</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>2042</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2043</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>2044</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>2046</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>2048</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <v>2049</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
-        <v>2051</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C33" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
-        <v>2052</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C34" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
-        <v>2053</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C35" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>2054</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C36" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C37" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
-        <v>2056</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C38" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>2057</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
-        <v>2058</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C40" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>2059</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C41" s="5" t="n">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
-        <v>2060</v>
-      </c>
-      <c r="B42" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="C42" s="5" t="n">
-        <v>0.013</v>
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1404,10 +1039,943 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="12.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.558</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.804</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="14.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.085</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="E10:E11 B9"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>-0.044</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1418,34 +1986,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +2035,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="1" sqref="E10:E11 J15"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1539,7 +2107,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E10:E11 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2046,7 +2614,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="E10:E11 E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2138,7 +2706,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="E10:E11 H18"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2192,10 +2760,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="E10:E11 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2205,69 +2773,118 @@
         <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.244</v>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.683</v>
+        <v>0.041</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.338</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.625</v>
+        <v>0.034</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.392</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.57</v>
+        <v>0.042</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.256</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.701</v>
+        <v>0.065</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -2286,10 +2903,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="E10:E11 E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2299,118 +2916,69 @@
         <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>58</v>
+      <c r="B2" s="5" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.244</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2021</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.338</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2021</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.392</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2021</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>2021</v>
+        <v>0.701</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +3000,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="E10:E11 D8"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,7 +3010,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>33</v>
@@ -2459,7 +3027,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>63</v>
@@ -2476,7 +3044,7 @@
         <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>63</v>
@@ -2490,10 +3058,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>63</v>
@@ -2507,10 +3075,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>63</v>
@@ -2524,10 +3092,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>63</v>
@@ -2544,7 +3112,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>63</v>
@@ -2574,86 +3142,86 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10:E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,6 +25,8 @@
     <sheet name="cpi_meta" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="gdp_growth" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="gdp_growth_meta" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="co2_cost" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="greenhouse_rate" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -285,6 +287,30 @@
   </si>
   <si>
     <t xml:space="preserve">newest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/tco2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2e_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2o</t>
   </si>
 </sst>
 </file>
@@ -730,7 +756,7 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -915,7 +941,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -972,7 +998,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -991,7 +1017,7 @@
       <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1005,7 +1031,7 @@
       <c r="C2" s="5" t="n">
         <v>0.523</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="5" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -1019,7 +1045,7 @@
       <c r="C3" s="9" t="n">
         <v>0.57</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="5" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -1041,7 +1067,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2027,6 +2053,1135 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>177</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>298</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>328</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>358</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>388</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>418</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>447</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>476</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>505</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>534</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>563</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>592</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>621</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>679</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>708</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>738</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>768</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>798</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="11.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>3180</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2762,7 +3917,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2905,8 +4060,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2999,7 +4154,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3142,7 +4297,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,13 +20,15 @@
     <sheet name="fuel_consumption" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="fuel_density" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="fuel_cost" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="fuel_consumption_acceleration" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="cpi" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="cpi_meta" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="gdp_growth" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="gdp_growth_meta" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="co2_cost" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="greenhouse_rate" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="greenhouse_rate" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="fuel_consumption_acceleration" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="cpi" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="cpi_meta" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="gdp_growth" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="gdp_growth_meta" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="co2_cost" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="emission_rate" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="emission_cost" sheetId="21" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="103">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -253,6 +255,24 @@
     <t xml:space="preserve">eur/l</t>
   </si>
   <si>
+    <t xml:space="preserve">gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2e_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ch4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n2o</t>
+  </si>
+  <si>
     <t xml:space="preserve">exit_intravilan</t>
   </si>
   <si>
@@ -295,22 +315,40 @@
     <t xml:space="preserve">eur/tco2e</t>
   </si>
   <si>
-    <t xml:space="preserve">gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2e_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g/kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ch4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n2o</t>
+    <t xml:space="preserve">substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm2p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnvoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nh3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city_center</t>
   </si>
 </sst>
 </file>
@@ -1065,6 +1103,414 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="11.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>3180</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>3140</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1084,22 +1530,22 @@
         <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1287,13 +1733,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1466,34 +1912,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1522,13 +1968,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2012,755 +2458,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>122.4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>177</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>2027</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>213.4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>2031</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>298</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>328</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>2033</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>358</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>2034</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>388</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>418</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>2036</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>447</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>2037</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>476</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>505</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>2039</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>534</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>563</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>2041</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>592</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2042</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>621</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>2043</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>650</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2044</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>679</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>708</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>2046</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>738</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>768</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>2048</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>798</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>2049</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>828</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>2051</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
-        <v>2052</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
-        <v>2053</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
-        <v>2054</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
-        <v>2056</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
-        <v>2057</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>2058</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
-        <v>2059</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>2060</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E41" s="5" t="n">
-        <v>2021</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2779,396 +2504,709 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="11.19"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>55</v>
+      <c r="A2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>104.2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3180</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
+      <c r="A3" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>122.4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>25</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
+      <c r="A4" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>140.6</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>88</v>
+      <c r="D4" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>298</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
+      <c r="A5" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>158.8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>1</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
+      <c r="A6" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>177</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>25</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
+      <c r="A7" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>195.2</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>88</v>
+      <c r="D7" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.087</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>298</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>57</v>
+      <c r="A8" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>213.4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>1</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
+      <c r="A9" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>231.6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>25</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>57</v>
+      <c r="A10" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>249.8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>88</v>
+      <c r="D10" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="F10" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>25</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
+      <c r="A13" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>328</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>88</v>
+      <c r="D13" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>298</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>57</v>
+      <c r="A14" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>358</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
+      <c r="A15" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>388</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>25</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
+      <c r="A16" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>418</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>88</v>
+      <c r="D16" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>298</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
+      <c r="A17" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>447</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3140</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>1</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>57</v>
+      <c r="A18" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>476</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>25</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>57</v>
+      <c r="A19" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>505</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>88</v>
+      <c r="D19" s="5" t="n">
+        <v>1E-006</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>298</v>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>534</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>563</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>592</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>621</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>679</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>708</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>738</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>768</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>798</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -3241,6 +3279,1068 @@
       </c>
       <c r="B6" s="1" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="11.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.106</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>14.91</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>33.37</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>33.37</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>33.37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -3768,7 +4868,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -4060,7 +5160,7 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4155,7 +5255,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="20"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,7 @@
     <sheet name="co2_cost" sheetId="19" state="visible" r:id="rId20"/>
     <sheet name="emission_rate" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="emission_cost" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="noise_cost" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="104">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -349,6 +350,9 @@
   </si>
   <si>
     <t xml:space="preserve">city_center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eurcent/vehkm</t>
   </si>
 </sst>
 </file>
@@ -435,7 +439,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,6 +480,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3854,8 +3862,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4335,6 +4343,516 @@
       </c>
       <c r="E21" s="0" t="n">
         <v>0.001</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.04"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.01</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2021</v>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,6 +30,8 @@
     <sheet name="emission_rate" sheetId="20" state="visible" r:id="rId21"/>
     <sheet name="emission_cost" sheetId="21" state="visible" r:id="rId22"/>
     <sheet name="noise_cost" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="accident_cost" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="accident_rate" sheetId="24" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="125">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -353,6 +355,76 @@
   </si>
   <si>
     <t xml:space="preserve">eurcent/vehkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accident_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severe_injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light_injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">road_layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single_wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inj/vehkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+1, obchvaty miest a obcí v extraviláne
+(2-pruh, prevažujú mimoúrovňové a okružné križovatky, max. 90 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single_three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+2 resp. 2+1, cesty v extraviláne
+(3-pruh alebo prídavný pruh pre pomalé vozidlá, max. 90 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motorway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single_four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+2, cesty v extraviláne smerovo nerozdelené
+(4-pruh, úrovňové stykové križovatky, max 100 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual_narrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+2, cesty v extraviláne smerovo rozdelené
+(4-pruh, mimoúrovňové križovatky, max 100 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+1 rýchlostné cesty/diaľnice v polovičnom profile
+(2-pruh, 80-100 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+2 rýchlostné cesty v plnom profile
+(4-pruh, max. 130 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual_wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+2 diaľnice v plnom profile
+(4-pruh, max. 130 km/h)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +511,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,8 +552,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3869,25 +3945,25 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3895,22 +3971,22 @@
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="5" t="n">
         <v>67.1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="F2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -3918,22 +3994,22 @@
       <c r="A3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="5" t="n">
         <v>67.1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -3941,22 +4017,22 @@
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="5" t="n">
         <v>67.1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -3964,22 +4040,22 @@
       <c r="A5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="5" t="n">
         <v>119.4</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="F5" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -3987,22 +4063,22 @@
       <c r="A6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="5" t="n">
         <v>16.8</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4010,22 +4086,22 @@
       <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="5" t="n">
         <v>16.8</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4033,22 +4109,22 @@
       <c r="A8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="5" t="n">
         <v>16.8</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4056,22 +4132,22 @@
       <c r="A9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="5" t="n">
         <v>28.2</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4079,22 +4155,22 @@
       <c r="A10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="5" t="n">
         <v>11.5</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4102,22 +4178,22 @@
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="5" t="n">
         <v>11.5</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="F11" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4125,22 +4201,22 @@
       <c r="A12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="5" t="n">
         <v>11.5</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4148,22 +4224,22 @@
       <c r="A13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="5" t="n">
         <v>11.5</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4171,22 +4247,22 @@
       <c r="A14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4194,22 +4270,22 @@
       <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4217,22 +4293,22 @@
       <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4240,22 +4316,22 @@
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4263,22 +4339,22 @@
       <c r="A18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="5" t="n">
         <v>27.7</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4286,22 +4362,22 @@
       <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="5" t="n">
         <v>27.7</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4309,22 +4385,22 @@
       <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="5" t="n">
         <v>27.7</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4332,22 +4408,22 @@
       <c r="A21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="5" t="n">
         <v>27.7</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -4369,496 +4445,837 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="15.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3296699</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>468484</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>36161</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0.7</v>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>6.541</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>47.969</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>4.585</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>24.453</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.585</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>24.453</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.437</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>29.583</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>11.383</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.903</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.216</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>12.846</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>1E-008</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.897</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,33 +5,36 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="conversion_factors" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="operation_cost" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="vtts" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="passenger_occupancy" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="voc_l" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="trip_purpose" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="voc_t" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="fuel_ratio" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="fuel_consumption" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="fuel_density" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="fuel_cost" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="greenhouse_rate" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="fuel_consumption_acceleration" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="cpi" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="cpi_meta" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="gdp_growth" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="gdp_growth_meta" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="co2_cost" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="emission_rate" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="emission_cost" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="noise_cost" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="accident_cost" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="accident_rate" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="vfts" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="vtts" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="passenger_occupancy" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="voc_l" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="trip_purpose" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="voc_t" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="fuel_ratio" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="fuel_consumption" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="fuel_density" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="fuel_cost" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="greenhouse_rate" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="fuel_consumption_acceleration" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="cpi" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="cpi_meta" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="gdp_growth" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="gdp_growth_meta" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="co2_cost" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="emission_rate" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="emission_cost" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="noise_cost" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="accident_cost" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="accident_rate" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="toll_operation" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="toll_revenue" sheetId="27" state="visible" r:id="rId28"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="132">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -177,6 +180,15 @@
     <t xml:space="preserve">new_warranty</t>
   </si>
   <si>
+    <t xml:space="preserve">substance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/h</t>
+  </si>
+  <si>
     <t xml:space="preserve">purpose</t>
   </si>
   <si>
@@ -186,9 +198,6 @@
     <t xml:space="preserve">business</t>
   </si>
   <si>
-    <t xml:space="preserve">eur/h</t>
-  </si>
-  <si>
     <t xml:space="preserve">commute</t>
   </si>
   <si>
@@ -316,9 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">eur/tco2e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substance</t>
   </si>
   <si>
     <t xml:space="preserve">pm2p5</t>
@@ -425,6 +431,24 @@
   <si>
     <t xml:space="preserve">2+2 diaľnice v plnom profile
 (4-pruh, max. 130 km/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toll_transaction_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonparallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other/intravilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eur/km</t>
   </si>
 </sst>
 </file>
@@ -876,173 +900,89 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>-0.00234</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>1.61E-005</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <v>-0.00234</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>1.61E-005</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>-0.00234</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>1.61E-005</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="E5" s="8" t="n">
-        <v>-0.0217</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0.000262</v>
-      </c>
-      <c r="G5" s="8" t="n">
-        <v>-9.89E-007</v>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1.024</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>-0.0217</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0.000262</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>-9.89E-007</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>-0.0217</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>0.000262</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>-9.89E-007</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1061,45 +1001,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.72</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>1.61E-005</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.82</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1.61E-005</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>-0.00234</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>1.61E-005</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>-0.0217</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>-9.89E-007</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>-0.0217</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>-9.89E-007</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>-0.0217</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>0.000262</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>-9.89E-007</v>
       </c>
     </row>
   </sheetData>
@@ -1114,6 +1182,63 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1131,7 +1256,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>33</v>
@@ -1145,10 +1270,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.523</v>
@@ -1159,10 +1284,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>0.57</v>
@@ -1182,7 +1307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1201,13 +1326,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>33</v>
@@ -1216,21 +1341,21 @@
         <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>3180</v>
@@ -1241,16 +1366,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1.09</v>
@@ -1261,16 +1386,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.206</v>
@@ -1281,16 +1406,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>3140</v>
@@ -1301,16 +1426,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.23</v>
@@ -1321,16 +1446,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.087</v>
@@ -1341,16 +1466,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>3140</v>
@@ -1361,16 +1486,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.16</v>
@@ -1381,16 +1506,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.056</v>
@@ -1401,16 +1526,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>3140</v>
@@ -1421,16 +1546,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0.27</v>
@@ -1441,16 +1566,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.051</v>
@@ -1461,16 +1586,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>3140</v>
@@ -1481,16 +1606,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.27</v>
@@ -1501,16 +1626,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.051</v>
@@ -1521,16 +1646,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>3140</v>
@@ -1541,16 +1666,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.27</v>
@@ -1561,16 +1686,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.051</v>
@@ -1590,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1608,36 +1733,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.057</v>
@@ -1660,10 +1785,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.051</v>
@@ -1686,10 +1811,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0.07</v>
@@ -1712,10 +1837,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>0.276</v>
@@ -1738,10 +1863,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0.393</v>
@@ -1764,10 +1889,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0.256</v>
@@ -1799,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1817,13 +1942,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +2102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1996,34 +2121,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2037,7 +2162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2052,13 +2177,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,7 +2648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2542,755 +2667,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>122.4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>2025</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>177</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>2027</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>213.4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B9" s="5" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>2030</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>268</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>2031</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>298</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>2032</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>328</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>2033</v>
-      </c>
-      <c r="B14" s="5" t="n">
-        <v>358</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>2034</v>
-      </c>
-      <c r="B15" s="5" t="n">
-        <v>388</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>2035</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>418</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>2036</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>447</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>2037</v>
-      </c>
-      <c r="B18" s="5" t="n">
-        <v>476</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>2038</v>
-      </c>
-      <c r="B19" s="5" t="n">
-        <v>505</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
-        <v>2039</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>534</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
-        <v>2040</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>563</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
-        <v>2041</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>592</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2042</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>621</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
-        <v>2043</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>650</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
-        <v>2044</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>679</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
-        <v>2045</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>708</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
-        <v>2046</v>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>738</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
-        <v>2047</v>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>768</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
-        <v>2048</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>798</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
-        <v>2049</v>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>828</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E30" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
-        <v>2050</v>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E31" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
-        <v>2051</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E32" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
-        <v>2052</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E33" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
-        <v>2053</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
-        <v>2054</v>
-      </c>
-      <c r="B35" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E35" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>2055</v>
-      </c>
-      <c r="B36" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
-        <v>2056</v>
-      </c>
-      <c r="B37" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
-        <v>2057</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>2058</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
-        <v>2059</v>
-      </c>
-      <c r="B40" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
-        <v>2060</v>
-      </c>
-      <c r="B41" s="5" t="n">
-        <v>858</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="E41" s="5" t="n">
-        <v>2021</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3312,7 +2716,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3377,6 +2781,727 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>177</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>213.4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>268</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>298</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>328</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>358</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>388</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>418</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>447</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>476</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>505</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>534</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>563</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>592</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>621</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>650</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>679</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>708</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B27" s="5" t="n">
+        <v>738</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>768</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>798</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>828</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>858</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3395,13 +3520,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>33</v>
@@ -3412,16 +3537,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>0.03</v>
@@ -3429,16 +3554,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>8.73</v>
@@ -3446,16 +3571,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02</v>
@@ -3463,16 +3588,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>10.05</v>
@@ -3480,16 +3605,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1.106</v>
@@ -3497,16 +3622,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1.1</v>
@@ -3514,16 +3639,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>12.96</v>
@@ -3531,16 +3656,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.02</v>
@@ -3548,16 +3673,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7</v>
@@ -3565,16 +3690,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0.065</v>
@@ -3582,16 +3707,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>1.52</v>
@@ -3599,16 +3724,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>14.91</v>
@@ -3616,16 +3741,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0.02</v>
@@ -3633,16 +3758,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>1.54</v>
@@ -3650,16 +3775,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.038</v>
@@ -3667,16 +3792,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.94</v>
@@ -3684,16 +3809,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>33.37</v>
@@ -3701,16 +3826,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.02</v>
@@ -3718,16 +3843,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>1.92</v>
@@ -3735,16 +3860,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>0.013</v>
@@ -3752,16 +3877,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.94</v>
@@ -3769,16 +3894,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>33.37</v>
@@ -3786,16 +3911,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>0.02</v>
@@ -3803,16 +3928,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>1.92</v>
@@ -3820,16 +3945,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0.013</v>
@@ -3837,16 +3962,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>0.94</v>
@@ -3854,16 +3979,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>33.37</v>
@@ -3871,16 +3996,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0.02</v>
@@ -3888,16 +4013,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>1.92</v>
@@ -3905,526 +4030,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>0.013</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>67.1</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>67.1</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>67.1</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -4445,53 +4063,50 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="15.04"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>67.1</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>2021</v>
@@ -4502,19 +4117,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>67.1</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>2021</v>
@@ -4525,19 +4140,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>67.1</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2021</v>
@@ -4548,19 +4163,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>103</v>
+      <c r="D5" s="5" t="n">
+        <v>119.4</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>2021</v>
@@ -4571,19 +4186,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.8</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>2021</v>
@@ -4594,19 +4209,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.8</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>2021</v>
@@ -4617,19 +4232,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>16.8</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>2021</v>
@@ -4640,19 +4255,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>103</v>
+      <c r="D9" s="5" t="n">
+        <v>28.2</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>2021</v>
@@ -4663,19 +4278,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>11.5</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2021</v>
@@ -4686,19 +4301,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>11.5</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>2021</v>
@@ -4709,19 +4324,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.5</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>2021</v>
@@ -4732,19 +4347,19 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>103</v>
+      <c r="D13" s="5" t="n">
+        <v>11.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>2021</v>
@@ -4755,19 +4370,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.8</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>2021</v>
@@ -4778,19 +4393,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>2021</v>
@@ -4801,19 +4416,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.8</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2021</v>
@@ -4824,19 +4439,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>103</v>
+      <c r="D17" s="5" t="n">
+        <v>0.8</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>2021</v>
@@ -4847,19 +4462,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>27.7</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>2021</v>
@@ -4870,19 +4485,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>27.7</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>2021</v>
@@ -4893,19 +4508,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>27.7</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>2021</v>
@@ -4916,19 +4531,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>103</v>
+      <c r="D21" s="5" t="n">
+        <v>27.7</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>2021</v>
@@ -4953,70 +4568,497 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="15.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>3296699</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>468484</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="A3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>36161</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -5036,9 +5078,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="14.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>3296699</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>468484</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>36161</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -5046,28 +5171,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,10 +5200,10 @@
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>1E-008</v>
@@ -5093,7 +5218,7 @@
         <v>47.969</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,10 +5226,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>1E-008</v>
@@ -5119,18 +5244,18 @@
         <v>24.453</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>1E-008</v>
@@ -5145,7 +5270,7 @@
         <v>24.453</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,10 +5278,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>1E-008</v>
@@ -5171,7 +5296,7 @@
         <v>29.583</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,10 +5304,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>1E-008</v>
@@ -5197,18 +5322,18 @@
         <v>11.383</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1E-008</v>
@@ -5223,18 +5348,18 @@
         <v>6.903</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>1E-008</v>
@@ -5249,18 +5374,18 @@
         <v>12.846</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1E-008</v>
@@ -5275,7 +5400,167 @@
         <v>6.897</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="13.49"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="D4" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5801,10 +6086,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5822,60 +6107,22 @@
       <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="C2" s="5" t="n">
-        <v>15.71</v>
+        <v>1.96</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5893,17 +6140,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>33</v>
@@ -5911,27 +6158,62 @@
       <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>1.4</v>
+        <v>15.71</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>22</v>
+        <v>7.45</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5950,131 +6232,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2021</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>2021</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6093,82 +6289,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.244</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.683</v>
+        <v>0.041</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.338</v>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>0.625</v>
+        <v>0.034</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.392</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.57</v>
+        <v>0.042</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0.701</v>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -6187,131 +6432,82 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.244</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>3.643</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>2021</v>
+        <v>0.683</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.338</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2.429</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>2021</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="B4" s="5" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.392</v>
+      </c>
       <c r="D4" s="5" t="n">
-        <v>12.138</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>2021</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.584</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>18.014</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>16.393</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>2021</v>
+        <v>0.701</v>
       </c>
     </row>
   </sheetData>
@@ -6330,89 +6526,131 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.75</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.25</v>
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.138</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1</v>
+      <c r="C5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>15.584</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.014</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.393</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="26"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="133">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -60,6 +60,12 @@
     <t xml:space="preserve">default_conversion_factor</t>
   </si>
   <si>
+    <t xml:space="preserve">replacement_cost_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb</t>
+  </si>
+  <si>
     <t xml:space="preserve">land</t>
   </si>
   <si>
@@ -379,9 +385,6 @@
   </si>
   <si>
     <t xml:space="preserve">road_layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nb</t>
   </si>
   <si>
     <t xml:space="preserve">single_wide</t>
@@ -601,10 +604,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O39" activeCellId="0" sqref="O39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,25 +629,34 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -654,12 +666,15 @@
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -669,12 +684,15 @@
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -684,12 +702,15 @@
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -699,12 +720,15 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -714,12 +738,15 @@
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -729,12 +756,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -744,12 +774,15 @@
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="n">
         <f aca="false">TRUE()</f>
@@ -759,12 +792,15 @@
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -772,12 +808,12 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -785,12 +821,12 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -798,12 +834,12 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -811,12 +847,12 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -824,12 +860,12 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -837,12 +873,12 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -850,12 +886,12 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="n">
         <f aca="false">FALSE()</f>
@@ -863,7 +899,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -910,21 +946,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.75</v>
@@ -932,10 +968,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.25</v>
@@ -943,10 +979,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>1</v>
@@ -954,10 +990,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1</v>
@@ -965,10 +1001,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>1</v>
@@ -976,10 +1012,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>1</v>
@@ -1011,36 +1047,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0.143</v>
@@ -1057,13 +1093,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>0.133</v>
@@ -1080,13 +1116,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.173</v>
@@ -1103,13 +1139,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.883</v>
@@ -1126,13 +1162,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1.024</v>
@@ -1149,13 +1185,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.703</v>
@@ -1196,21 +1232,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.72</v>
@@ -1218,10 +1254,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.82</v>
@@ -1256,24 +1292,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.523</v>
@@ -1284,10 +1320,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>0.57</v>
@@ -1326,36 +1362,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>3180</v>
@@ -1366,16 +1402,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1.09</v>
@@ -1386,16 +1422,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.206</v>
@@ -1406,16 +1442,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>3140</v>
@@ -1426,16 +1462,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.23</v>
@@ -1446,16 +1482,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.087</v>
@@ -1466,16 +1502,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>3140</v>
@@ -1486,16 +1522,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.16</v>
@@ -1506,16 +1542,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.056</v>
@@ -1526,16 +1562,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>3140</v>
@@ -1546,16 +1582,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0.27</v>
@@ -1566,16 +1602,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.051</v>
@@ -1586,16 +1622,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>3140</v>
@@ -1606,16 +1642,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.27</v>
@@ -1626,16 +1662,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.051</v>
@@ -1646,16 +1682,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>3140</v>
@@ -1666,16 +1702,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.27</v>
@@ -1686,16 +1722,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.051</v>
@@ -1733,36 +1769,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.057</v>
@@ -1785,10 +1821,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.051</v>
@@ -1811,10 +1847,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0.07</v>
@@ -1837,10 +1873,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>0.276</v>
@@ -1863,10 +1899,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0.393</v>
@@ -1889,10 +1925,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>0.256</v>
@@ -1942,13 +1978,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,34 +2157,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2177,13 +2213,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,34 +2703,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2726,12 +2762,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.9</v>
@@ -2739,7 +2775,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0.5</v>
@@ -2747,7 +2783,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0.6</v>
@@ -2755,7 +2791,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
@@ -2763,7 +2799,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0.9</v>
@@ -2795,19 +2831,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +2854,7 @@
         <v>104.2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>1E-006</v>
@@ -2835,7 +2871,7 @@
         <v>122.4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>1E-006</v>
@@ -2852,7 +2888,7 @@
         <v>140.6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>1E-006</v>
@@ -2869,7 +2905,7 @@
         <v>158.8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>1E-006</v>
@@ -2886,7 +2922,7 @@
         <v>177</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1E-006</v>
@@ -2903,7 +2939,7 @@
         <v>195.2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1E-006</v>
@@ -2920,7 +2956,7 @@
         <v>213.4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>1E-006</v>
@@ -2937,7 +2973,7 @@
         <v>231.6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1E-006</v>
@@ -2954,7 +2990,7 @@
         <v>249.8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1E-006</v>
@@ -2971,7 +3007,7 @@
         <v>268</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1E-006</v>
@@ -2988,7 +3024,7 @@
         <v>298</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1E-006</v>
@@ -3005,7 +3041,7 @@
         <v>328</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>1E-006</v>
@@ -3022,7 +3058,7 @@
         <v>358</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>1E-006</v>
@@ -3039,7 +3075,7 @@
         <v>388</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1E-006</v>
@@ -3056,7 +3092,7 @@
         <v>418</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1E-006</v>
@@ -3073,7 +3109,7 @@
         <v>447</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>1E-006</v>
@@ -3090,7 +3126,7 @@
         <v>476</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1E-006</v>
@@ -3107,7 +3143,7 @@
         <v>505</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>1E-006</v>
@@ -3124,7 +3160,7 @@
         <v>534</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>1E-006</v>
@@ -3141,7 +3177,7 @@
         <v>563</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1E-006</v>
@@ -3158,7 +3194,7 @@
         <v>592</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1E-006</v>
@@ -3175,7 +3211,7 @@
         <v>621</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>1E-006</v>
@@ -3192,7 +3228,7 @@
         <v>650</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>1E-006</v>
@@ -3209,7 +3245,7 @@
         <v>679</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>1E-006</v>
@@ -3226,7 +3262,7 @@
         <v>708</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>1E-006</v>
@@ -3243,7 +3279,7 @@
         <v>738</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>1E-006</v>
@@ -3260,7 +3296,7 @@
         <v>768</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>1E-006</v>
@@ -3277,7 +3313,7 @@
         <v>798</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>1E-006</v>
@@ -3294,7 +3330,7 @@
         <v>828</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>1E-006</v>
@@ -3311,7 +3347,7 @@
         <v>858</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>1E-006</v>
@@ -3328,7 +3364,7 @@
         <v>858</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>1E-006</v>
@@ -3345,7 +3381,7 @@
         <v>858</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>1E-006</v>
@@ -3362,7 +3398,7 @@
         <v>858</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>1E-006</v>
@@ -3379,7 +3415,7 @@
         <v>858</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>1E-006</v>
@@ -3396,7 +3432,7 @@
         <v>858</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>1E-006</v>
@@ -3413,7 +3449,7 @@
         <v>858</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>1E-006</v>
@@ -3430,7 +3466,7 @@
         <v>858</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>1E-006</v>
@@ -3447,7 +3483,7 @@
         <v>858</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>1E-006</v>
@@ -3464,7 +3500,7 @@
         <v>858</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>1E-006</v>
@@ -3481,7 +3517,7 @@
         <v>858</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>1E-006</v>
@@ -3520,33 +3556,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>0.03</v>
@@ -3554,16 +3590,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>8.73</v>
@@ -3571,16 +3607,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02</v>
@@ -3588,16 +3624,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>10.05</v>
@@ -3605,16 +3641,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1.106</v>
@@ -3622,16 +3658,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1.1</v>
@@ -3639,16 +3675,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>12.96</v>
@@ -3656,16 +3692,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.02</v>
@@ -3673,16 +3709,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7</v>
@@ -3690,16 +3726,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0.065</v>
@@ -3707,16 +3743,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>1.52</v>
@@ -3724,16 +3760,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>14.91</v>
@@ -3741,16 +3777,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0.02</v>
@@ -3758,16 +3794,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>1.54</v>
@@ -3775,16 +3811,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.038</v>
@@ -3792,16 +3828,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.94</v>
@@ -3809,16 +3845,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>33.37</v>
@@ -3826,16 +3862,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.02</v>
@@ -3843,16 +3879,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>1.92</v>
@@ -3860,16 +3896,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>0.013</v>
@@ -3877,16 +3913,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.94</v>
@@ -3894,16 +3930,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>33.37</v>
@@ -3911,16 +3947,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>0.02</v>
@@ -3928,16 +3964,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>1.92</v>
@@ -3945,16 +3981,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0.013</v>
@@ -3962,16 +3998,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>0.94</v>
@@ -3979,16 +4015,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>33.37</v>
@@ -3996,16 +4032,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>0.02</v>
@@ -4013,16 +4049,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>1.92</v>
@@ -4030,16 +4066,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>0.013</v>
@@ -4071,36 +4107,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>67.1</v>
@@ -4117,13 +4153,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>67.1</v>
@@ -4140,13 +4176,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>67.1</v>
@@ -4163,13 +4199,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>119.4</v>
@@ -4186,13 +4222,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>16.8</v>
@@ -4209,13 +4245,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>16.8</v>
@@ -4232,13 +4268,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>16.8</v>
@@ -4255,13 +4291,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>28.2</v>
@@ -4278,13 +4314,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>11.5</v>
@@ -4301,13 +4337,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>11.5</v>
@@ -4324,13 +4360,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>11.5</v>
@@ -4347,13 +4383,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>11.5</v>
@@ -4370,13 +4406,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.8</v>
@@ -4393,13 +4429,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.8</v>
@@ -4416,13 +4452,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8</v>
@@ -4439,13 +4475,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.8</v>
@@ -4462,13 +4498,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>27.7</v>
@@ -4485,13 +4521,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>27.7</v>
@@ -4508,13 +4544,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>27.7</v>
@@ -4531,13 +4567,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>27.7</v>
@@ -4570,7 +4606,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4581,39 +4617,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>0.01</v>
@@ -4627,16 +4663,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="10" t="n">
         <v>1.4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>0.01</v>
@@ -4650,16 +4686,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>0.09</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01</v>
@@ -4673,16 +4709,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>0.01</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0.01</v>
@@ -4696,16 +4732,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.01</v>
@@ -4719,16 +4755,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>2.95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.01</v>
@@ -4742,16 +4778,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" s="10" t="n">
         <v>0.18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.01</v>
@@ -4765,16 +4801,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="10" t="n">
         <v>0.02</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.01</v>
@@ -4788,16 +4824,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01</v>
@@ -4811,16 +4847,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C11" s="10" t="n">
         <v>11.75</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0.01</v>
@@ -4834,16 +4870,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="10" t="n">
         <v>0.73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0.01</v>
@@ -4857,16 +4893,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C13" s="10" t="n">
         <v>0.09</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01</v>
@@ -4880,16 +4916,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0.01</v>
@@ -4903,16 +4939,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>16.46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.01</v>
@@ -4926,16 +4962,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>1.02</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01</v>
@@ -4949,16 +4985,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>0.13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.01</v>
@@ -4972,16 +5008,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.01</v>
@@ -4995,16 +5031,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12.61</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.01</v>
@@ -5018,16 +5054,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>0.78</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0.01</v>
@@ -5041,16 +5077,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>0.1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>0.01</v>
@@ -5091,21 +5127,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>3296699</v>
@@ -5119,7 +5155,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>468484</v>
@@ -5133,7 +5169,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>36161</v>
@@ -5171,39 +5207,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>1E-008</v>
@@ -5218,18 +5254,18 @@
         <v>47.969</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>1E-008</v>
@@ -5244,18 +5280,18 @@
         <v>24.453</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>1E-008</v>
@@ -5270,18 +5306,18 @@
         <v>24.453</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>1E-008</v>
@@ -5296,18 +5332,18 @@
         <v>29.583</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>1E-008</v>
@@ -5322,18 +5358,18 @@
         <v>11.383</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1E-008</v>
@@ -5348,18 +5384,18 @@
         <v>6.903</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>1E-008</v>
@@ -5374,18 +5410,18 @@
         <v>12.846</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1E-008</v>
@@ -5400,7 +5436,7 @@
         <v>6.897</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5436,26 +5472,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.124</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="5" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -5477,7 +5513,7 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5485,30 +5521,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.089</v>
@@ -5525,10 +5561,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.198</v>
@@ -5545,10 +5581,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0.047</v>
@@ -5593,36 +5629,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5632,7 +5668,7 @@
         <v>2021</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4.7</v>
@@ -5640,13 +5676,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5656,7 +5692,7 @@
         <v>2021</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="7" t="n">
         <v>3.6</v>
@@ -5664,13 +5700,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5680,7 +5716,7 @@
         <v>2021</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>3.9</v>
@@ -5688,13 +5724,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5704,7 +5740,7 @@
         <v>2021</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="7" t="n">
         <v>3.2</v>
@@ -5712,13 +5748,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5728,7 +5764,7 @@
         <v>2021</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7" t="n">
         <v>2.1</v>
@@ -5736,13 +5772,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5752,7 +5788,7 @@
         <v>2021</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="n">
         <v>1</v>
@@ -5760,13 +5796,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5776,7 +5812,7 @@
         <v>2021</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="n">
         <v>2.1</v>
@@ -5784,13 +5820,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5800,7 +5836,7 @@
         <v>2021</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="7" t="n">
         <v>1</v>
@@ -5808,13 +5844,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5824,7 +5860,7 @@
         <v>2021</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="n">
         <v>150</v>
@@ -5832,13 +5868,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5848,7 +5884,7 @@
         <v>2021</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="n">
         <v>150</v>
@@ -5856,13 +5892,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5872,7 +5908,7 @@
         <v>2021</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="n">
         <v>130.9</v>
@@ -5880,13 +5916,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5896,7 +5932,7 @@
         <v>2021</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="n">
         <v>130.9</v>
@@ -5904,13 +5940,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5920,7 +5956,7 @@
         <v>2021</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="n">
         <v>20.4</v>
@@ -5928,13 +5964,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5944,7 +5980,7 @@
         <v>2021</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="n">
         <v>20.4</v>
@@ -5952,13 +5988,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5968,7 +6004,7 @@
         <v>2021</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="n">
         <v>20.4</v>
@@ -5976,13 +6012,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5992,7 +6028,7 @@
         <v>2021</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="n">
         <v>20.4</v>
@@ -6000,13 +6036,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -6016,7 +6052,7 @@
         <v>2021</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>35</v>
@@ -6024,13 +6060,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -6040,7 +6076,7 @@
         <v>2021</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>28.5</v>
@@ -6048,13 +6084,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -6064,7 +6100,7 @@
         <v>2021</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>35</v>
@@ -6096,25 +6132,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1.96</v>
@@ -6150,27 +6186,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>15.71</v>
@@ -6184,10 +6220,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>7.45</v>
@@ -6201,10 +6237,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>4.86</v>
@@ -6242,21 +6278,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1.4</v>
@@ -6264,10 +6300,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>22</v>
@@ -6299,30 +6335,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0.041</v>
@@ -6333,13 +6369,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>0.034</v>
@@ -6350,13 +6386,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.042</v>
@@ -6367,13 +6403,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.065</v>
@@ -6384,13 +6420,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.12</v>
@@ -6401,13 +6437,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.084</v>
@@ -6442,21 +6478,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0.073</v>
@@ -6470,7 +6506,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>0.037</v>
@@ -6484,7 +6520,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0.038</v>
@@ -6498,7 +6534,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>0.043</v>
@@ -6536,30 +6572,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>3.643</v>
@@ -6570,13 +6606,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2.429</v>
@@ -6587,13 +6623,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>12.138</v>
@@ -6604,13 +6640,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>15.584</v>
@@ -6621,13 +6657,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>18.014</v>
@@ -6638,13 +6674,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>16.393</v>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="133">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -606,7 +606,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5615,10 +5615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5802,11 +5802,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>2021</v>
@@ -5826,11 +5825,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>2021</v>
@@ -5844,13 +5842,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5863,18 +5861,18 @@
         <v>39</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>150</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5887,7 +5885,7 @@
         <v>39</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,8 +5899,8 @@
         <v>38</v>
       </c>
       <c r="D12" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>2021</v>
@@ -5911,7 +5909,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>130.9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,8 +5923,8 @@
         <v>38</v>
       </c>
       <c r="D13" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>2021</v>
@@ -5935,7 +5933,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>130.9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,11 +5944,11 @@
         <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>2021</v>
@@ -5959,7 +5957,7 @@
         <v>39</v>
       </c>
       <c r="G14" s="7" t="n">
-        <v>20.4</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5970,11 +5968,11 @@
         <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>2021</v>
@@ -5983,7 +5981,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>20.4</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,7 +5992,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -6018,7 +6016,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -6036,17 +6034,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>2021</v>
@@ -6054,23 +6051,22 @@
       <c r="F18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>35</v>
+      <c r="G18" s="7" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>2021</v>
@@ -6078,19 +6074,19 @@
       <c r="F19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>28.5</v>
+      <c r="G19" s="7" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -6102,7 +6098,103 @@
       <c r="F20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="7" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <v>35</v>
       </c>
     </row>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5618,7 +5618,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5804,7 +5804,8 @@
       <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="5" t="n">
@@ -5827,7 +5828,8 @@
       <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="b">
+      <c r="D9" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
@@ -6042,7 +6044,8 @@
       <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="b">
+      <c r="D18" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
@@ -6065,7 +6068,8 @@
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="6" t="b">
+      <c r="D19" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="5" t="n">
@@ -6147,7 +6151,8 @@
         <v>39</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>35</v>
+        <f aca="false">35+55</f>
+        <v>90</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,7 +6176,8 @@
         <v>39</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>28.5</v>
+        <f aca="false">28.5+55</f>
+        <v>83.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,7 +6201,8 @@
         <v>39</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>35</v>
+        <f aca="false">35+55</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">induced investment</t>
   </si>
   <si>
-    <t xml:space="preserve">supervison</t>
+    <t xml:space="preserve">supervision</t>
   </si>
   <si>
     <t xml:space="preserve">other services</t>
@@ -606,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5617,7 +5617,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">walls and stabilisation</t>
   </si>
   <si>
-    <t xml:space="preserve">noise barriers and other enviroment protection measures</t>
+    <t xml:space="preserve">noise barriers and other environment protection measures</t>
   </si>
   <si>
     <t xml:space="preserve">information system – constructions</t>
@@ -607,7 +607,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
+++ b/pycba/parameters/svk/transport/OPIIv3p0/svk_road_cba_parameters_OPIIv3p0_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="residual_value" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="136">
   <si>
     <t xml:space="preserve">item</t>
   </si>
@@ -316,6 +316,15 @@
   </si>
   <si>
     <t xml:space="preserve">IFP_2022_03-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFP_2022_06-60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFP_2022_09-61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFP_2023_02-62</t>
   </si>
   <si>
     <t xml:space="preserve">key</t>
@@ -538,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -579,6 +588,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -606,8 +619,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="F9:F42 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,7 +952,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F9:F42 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,7 +1053,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="F9:F42 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1225,7 +1238,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F9:F42 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1282,7 +1295,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="F9:F42 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1351,7 +1364,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="1" sqref="F9:F42 E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1759,7 +1772,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="F9:F42 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1965,10 +1978,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F9:F42 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1986,6 +1999,15 @@
       <c r="C1" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
@@ -1997,6 +2019,15 @@
       <c r="C2" s="9" t="n">
         <v>0.01</v>
       </c>
+      <c r="D2" s="9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -2008,6 +2039,15 @@
       <c r="C3" s="5" t="n">
         <v>0.039</v>
       </c>
+      <c r="D3" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0.039</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -2019,6 +2059,15 @@
       <c r="C4" s="5" t="n">
         <v>0.036</v>
       </c>
+      <c r="D4" s="5" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.036</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -2030,6 +2079,15 @@
       <c r="C5" s="5" t="n">
         <v>0.014</v>
       </c>
+      <c r="D5" s="5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.014</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2041,6 +2099,15 @@
       <c r="C6" s="5" t="n">
         <v>-0.001</v>
       </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.001</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -2052,6 +2119,15 @@
       <c r="C7" s="5" t="n">
         <v>-0.003</v>
       </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.003</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -2063,6 +2139,15 @@
       <c r="C8" s="5" t="n">
         <v>-0.005</v>
       </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.005</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -2074,6 +2159,15 @@
       <c r="C9" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -2085,6 +2179,15 @@
       <c r="C10" s="5" t="n">
         <v>0.025</v>
       </c>
+      <c r="D10" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -2096,6 +2199,15 @@
       <c r="C11" s="5" t="n">
         <v>0.027</v>
       </c>
+      <c r="D11" s="5" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.027</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -2107,6 +2219,15 @@
       <c r="C12" s="5" t="n">
         <v>0.019</v>
       </c>
+      <c r="D12" s="5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.019</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -2116,6 +2237,15 @@
         <v>0.012</v>
       </c>
       <c r="C13" s="5" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>0.032</v>
       </c>
     </row>
@@ -2125,6 +2255,15 @@
       </c>
       <c r="C14" s="5" t="n">
         <v>0.085</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0.1159</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0.1243</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>0.1278</v>
       </c>
     </row>
   </sheetData>
@@ -2143,10 +2282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="F9:F42 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2157,18 +2296,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,6 +2324,30 @@
       </c>
       <c r="B4" s="5" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2203,13 +2366,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.98"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -2221,6 +2387,15 @@
       <c r="C1" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
@@ -2232,6 +2407,15 @@
       <c r="C2" s="5" t="n">
         <v>-0.044</v>
       </c>
+      <c r="D2" s="5" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>-0.044</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>-0.044</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -2241,6 +2425,15 @@
         <v>0.043</v>
       </c>
       <c r="C3" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2254,6 +2447,15 @@
       <c r="C4" s="5" t="n">
         <v>0.021</v>
       </c>
+      <c r="D4" s="9" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="E4" s="9" t="n">
+        <v>0.019280175343015</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0.0172359184819222</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -2265,6 +2467,15 @@
       <c r="C5" s="5" t="n">
         <v>0.053</v>
       </c>
+      <c r="D5" s="9" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>0.00630593081051578</v>
+      </c>
+      <c r="F5" s="9" t="n">
+        <v>0.0126521630614915</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -2276,6 +2487,15 @@
       <c r="C6" s="5" t="n">
         <v>0.018</v>
       </c>
+      <c r="D6" s="9" t="n">
+        <v>0.03244</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.0166101390329563</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0.0175668075593918</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -2287,6 +2507,15 @@
       <c r="C7" s="5" t="n">
         <v>0.018</v>
       </c>
+      <c r="D7" s="9" t="n">
+        <v>0.01879</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.0228752353890331</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0.026541471020296</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -2298,6 +2527,15 @@
       <c r="C8" s="5" t="n">
         <v>0.017</v>
       </c>
+      <c r="D8" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0.019079963540708</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -2309,6 +2547,15 @@
       <c r="C9" s="5" t="n">
         <v>0.017</v>
       </c>
+      <c r="D9" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0.017</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -2320,6 +2567,15 @@
       <c r="C10" s="5" t="n">
         <v>0.017</v>
       </c>
+      <c r="D10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.017</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -2331,6 +2587,15 @@
       <c r="C11" s="5" t="n">
         <v>0.017</v>
       </c>
+      <c r="D11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.017</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -2342,6 +2607,15 @@
       <c r="C12" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -2353,6 +2627,15 @@
       <c r="C13" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -2364,6 +2647,15 @@
       <c r="C14" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -2375,6 +2667,15 @@
       <c r="C15" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -2386,6 +2687,15 @@
       <c r="C16" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -2397,6 +2707,15 @@
       <c r="C17" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -2408,6 +2727,15 @@
       <c r="C18" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -2419,6 +2747,15 @@
       <c r="C19" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -2430,6 +2767,15 @@
       <c r="C20" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -2441,6 +2787,15 @@
       <c r="C21" s="5" t="n">
         <v>0.012</v>
       </c>
+      <c r="D21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.012</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -2452,6 +2807,15 @@
       <c r="C22" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
@@ -2463,6 +2827,15 @@
       <c r="C23" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
@@ -2474,6 +2847,15 @@
       <c r="C24" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
@@ -2485,6 +2867,15 @@
       <c r="C25" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
@@ -2496,6 +2887,15 @@
       <c r="C26" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -2507,6 +2907,15 @@
       <c r="C27" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
@@ -2518,6 +2927,15 @@
       <c r="C28" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
@@ -2529,6 +2947,15 @@
       <c r="C29" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
@@ -2540,6 +2967,15 @@
       <c r="C30" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
@@ -2551,6 +2987,15 @@
       <c r="C31" s="5" t="n">
         <v>0.01</v>
       </c>
+      <c r="D31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
@@ -2562,6 +3007,15 @@
       <c r="C32" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
@@ -2573,6 +3027,15 @@
       <c r="C33" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
@@ -2584,6 +3047,15 @@
       <c r="C34" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
@@ -2595,6 +3067,15 @@
       <c r="C35" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
@@ -2606,6 +3087,15 @@
       <c r="C36" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
@@ -2617,6 +3107,15 @@
       <c r="C37" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
@@ -2628,6 +3127,15 @@
       <c r="C38" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
@@ -2639,6 +3147,15 @@
       <c r="C39" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
@@ -2650,6 +3167,15 @@
       <c r="C40" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
@@ -2661,6 +3187,15 @@
       <c r="C41" s="5" t="n">
         <v>0.013</v>
       </c>
+      <c r="D41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0.013</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
@@ -2670,6 +3205,15 @@
         <v>0.013</v>
       </c>
       <c r="C42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F42" s="5" t="n">
         <v>0.013</v>
       </c>
     </row>
@@ -2689,10 +3233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F9:F42 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2703,18 +3247,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,6 +3275,30 @@
       </c>
       <c r="B4" s="5" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +3320,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="1" sqref="F9:F42 O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2824,7 +3392,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="F9:F42 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2840,7 +3408,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>34</v>
@@ -2854,7 +3422,7 @@
         <v>104.2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>1E-006</v>
@@ -2871,7 +3439,7 @@
         <v>122.4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>1E-006</v>
@@ -2888,7 +3456,7 @@
         <v>140.6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>1E-006</v>
@@ -2905,7 +3473,7 @@
         <v>158.8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>1E-006</v>
@@ -2922,7 +3490,7 @@
         <v>177</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1E-006</v>
@@ -2939,7 +3507,7 @@
         <v>195.2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>1E-006</v>
@@ -2956,7 +3524,7 @@
         <v>213.4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>1E-006</v>
@@ -2973,7 +3541,7 @@
         <v>231.6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1E-006</v>
@@ -2990,7 +3558,7 @@
         <v>249.8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>1E-006</v>
@@ -3007,7 +3575,7 @@
         <v>268</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1E-006</v>
@@ -3024,7 +3592,7 @@
         <v>298</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1E-006</v>
@@ -3041,7 +3609,7 @@
         <v>328</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>1E-006</v>
@@ -3058,7 +3626,7 @@
         <v>358</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>1E-006</v>
@@ -3075,7 +3643,7 @@
         <v>388</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1E-006</v>
@@ -3092,7 +3660,7 @@
         <v>418</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1E-006</v>
@@ -3109,7 +3677,7 @@
         <v>447</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>1E-006</v>
@@ -3126,7 +3694,7 @@
         <v>476</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1E-006</v>
@@ -3143,7 +3711,7 @@
         <v>505</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>1E-006</v>
@@ -3160,7 +3728,7 @@
         <v>534</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>1E-006</v>
@@ -3177,7 +3745,7 @@
         <v>563</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1E-006</v>
@@ -3194,7 +3762,7 @@
         <v>592</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1E-006</v>
@@ -3211,7 +3779,7 @@
         <v>621</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>1E-006</v>
@@ -3228,7 +3796,7 @@
         <v>650</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>1E-006</v>
@@ -3245,7 +3813,7 @@
         <v>679</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>1E-006</v>
@@ -3262,7 +3830,7 @@
         <v>708</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>1E-006</v>
@@ -3279,7 +3847,7 @@
         <v>738</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>1E-006</v>
@@ -3296,7 +3864,7 @@
         <v>768</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>1E-006</v>
@@ -3313,7 +3881,7 @@
         <v>798</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>1E-006</v>
@@ -3330,7 +3898,7 @@
         <v>828</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>1E-006</v>
@@ -3347,7 +3915,7 @@
         <v>858</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>1E-006</v>
@@ -3364,7 +3932,7 @@
         <v>858</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>1E-006</v>
@@ -3381,7 +3949,7 @@
         <v>858</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>1E-006</v>
@@ -3398,7 +3966,7 @@
         <v>858</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>1E-006</v>
@@ -3415,7 +3983,7 @@
         <v>858</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>1E-006</v>
@@ -3432,7 +4000,7 @@
         <v>858</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>1E-006</v>
@@ -3449,7 +4017,7 @@
         <v>858</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>1E-006</v>
@@ -3466,7 +4034,7 @@
         <v>858</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>1E-006</v>
@@ -3483,7 +4051,7 @@
         <v>858</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>1E-006</v>
@@ -3500,7 +4068,7 @@
         <v>858</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>1E-006</v>
@@ -3517,7 +4085,7 @@
         <v>858</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>1E-006</v>
@@ -3545,7 +4113,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="1" sqref="F9:F42 G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3579,7 +4147,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>78</v>
@@ -3596,7 +4164,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>78</v>
@@ -3613,7 +4181,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -3630,7 +4198,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>78</v>
@@ -3647,7 +4215,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>78</v>
@@ -3664,7 +4232,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>78</v>
@@ -3681,7 +4249,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>78</v>
@@ -3698,7 +4266,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>78</v>
@@ -3715,7 +4283,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>78</v>
@@ -3732,7 +4300,7 @@
         <v>61</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>78</v>
@@ -3749,7 +4317,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>78</v>
@@ -3766,7 +4334,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>78</v>
@@ -3783,7 +4351,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>78</v>
@@ -3800,7 +4368,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>78</v>
@@ -3817,7 +4385,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>78</v>
@@ -3834,7 +4402,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>78</v>
@@ -3851,7 +4419,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>78</v>
@@ -3868,7 +4436,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>78</v>
@@ -3885,7 +4453,7 @@
         <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>78</v>
@@ -3902,7 +4470,7 @@
         <v>61</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>78</v>
@@ -3919,7 +4487,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>78</v>
@@ -3936,7 +4504,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>78</v>
@@ -3953,7 +4521,7 @@
         <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>78</v>
@@ -3970,7 +4538,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>78</v>
@@ -3987,7 +4555,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>78</v>
@@ -4004,7 +4572,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>78</v>
@@ -4021,7 +4589,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>78</v>
@@ -4038,7 +4606,7 @@
         <v>61</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>78</v>
@@ -4055,7 +4623,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>78</v>
@@ -4072,7 +4640,7 @@
         <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>78</v>
@@ -4100,7 +4668,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F9:F42 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4110,7 +4678,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>35</v>
@@ -4119,7 +4687,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>34</v>
@@ -4130,13 +4698,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>67.1</v>
@@ -4153,13 +4721,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>67.1</v>
@@ -4176,13 +4744,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>67.1</v>
@@ -4199,13 +4767,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>119.4</v>
@@ -4222,13 +4790,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>16.8</v>
@@ -4245,13 +4813,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>16.8</v>
@@ -4268,13 +4836,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>16.8</v>
@@ -4291,13 +4859,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>28.2</v>
@@ -4314,13 +4882,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>11.5</v>
@@ -4337,13 +4905,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>11.5</v>
@@ -4360,13 +4928,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>11.5</v>
@@ -4383,13 +4951,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>11.5</v>
@@ -4406,13 +4974,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.8</v>
@@ -4429,13 +4997,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.8</v>
@@ -4452,13 +5020,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8</v>
@@ -4475,13 +5043,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.8</v>
@@ -4498,13 +5066,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>27.7</v>
@@ -4521,13 +5089,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>27.7</v>
@@ -4544,13 +5112,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>27.7</v>
@@ -4567,13 +5135,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>27.7</v>
@@ -4607,7 +5175,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F9:F42 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4620,7 +5188,7 @@
         <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>26</v>
@@ -4629,7 +5197,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>34</v>
@@ -4643,13 +5211,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>0.01</v>
@@ -4666,13 +5234,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>1.4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>0.01</v>
@@ -4689,13 +5257,13 @@
         <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>0.09</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01</v>
@@ -4712,13 +5280,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>0.01</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0.01</v>
@@ -4735,13 +5303,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.01</v>
@@ -4758,13 +5326,13 @@
         <v>62</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>2.95</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.01</v>
@@ -4781,13 +5349,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>0.18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.01</v>
@@ -4804,13 +5372,13 @@
         <v>62</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <v>0.02</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.01</v>
@@ -4827,13 +5395,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01</v>
@@ -4850,13 +5418,13 @@
         <v>63</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="C11" s="11" t="n">
         <v>11.75</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0.01</v>
@@ -4873,13 +5441,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <v>0.73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0.01</v>
@@ -4896,13 +5464,13 @@
         <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C13" s="11" t="n">
         <v>0.09</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01</v>
@@ -4919,13 +5487,13 @@
         <v>64</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0.01</v>
@@ -4942,13 +5510,13 @@
         <v>64</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <v>16.46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.01</v>
@@ -4965,13 +5533,13 @@
         <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>1.02</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01</v>
@@ -4988,13 +5556,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <v>0.13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.01</v>
@@ -5011,13 +5579,13 @@
         <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="10" t="n">
+        <v>104</v>
+      </c>
+      <c r="C18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.01</v>
@@ -5034,13 +5602,13 @@
         <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="10" t="n">
+        <v>108</v>
+      </c>
+      <c r="C19" s="11" t="n">
         <v>12.61</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.01</v>
@@ -5057,13 +5625,13 @@
         <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <v>0.78</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0.01</v>
@@ -5080,13 +5648,13 @@
         <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C21" s="11" t="n">
         <v>0.1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>0.01</v>
@@ -5117,7 +5685,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="F9:F42 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5127,7 +5695,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>26</v>
@@ -5141,7 +5709,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>3296699</v>
@@ -5155,7 +5723,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>468484</v>
@@ -5169,7 +5737,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>36161</v>
@@ -5200,32 +5768,32 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="1" sqref="F9:F42 J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
@@ -5236,10 +5804,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D2" s="8" t="n">
         <v>1E-008</v>
@@ -5253,8 +5821,8 @@
       <c r="G2" s="5" t="n">
         <v>47.969</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>115</v>
+      <c r="H2" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5262,10 +5830,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>1E-008</v>
@@ -5279,19 +5847,19 @@
       <c r="G3" s="5" t="n">
         <v>24.453</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>117</v>
+      <c r="H3" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>1E-008</v>
@@ -5305,8 +5873,8 @@
       <c r="G4" s="5" t="n">
         <v>24.453</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>117</v>
+      <c r="H4" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,10 +5882,10 @@
         <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>1E-008</v>
@@ -5331,8 +5899,8 @@
       <c r="G5" s="5" t="n">
         <v>29.583</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>120</v>
+      <c r="H5" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,10 +5908,10 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>1E-008</v>
@@ -5357,19 +5925,19 @@
       <c r="G6" s="5" t="n">
         <v>11.383</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>122</v>
+      <c r="H6" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1E-008</v>
@@ -5383,19 +5951,19 @@
       <c r="G7" s="5" t="n">
         <v>6.903</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>123</v>
+      <c r="H7" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>1E-008</v>
@@ -5409,19 +5977,19 @@
       <c r="G8" s="5" t="n">
         <v>12.846</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>124</v>
+      <c r="H8" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1E-008</v>
@@ -5435,8 +6003,8 @@
       <c r="G9" s="5" t="n">
         <v>6.897</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>126</v>
+      <c r="H9" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +6026,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="F9:F42 D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5483,10 +6051,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.124</v>
@@ -5514,7 +6082,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="F9:F42 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5527,16 +6095,16 @@
         <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +6112,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.089</v>
@@ -5564,7 +6132,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0.198</v>
@@ -5584,7 +6152,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>0.047</v>
@@ -5618,7 +6186,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="1" sqref="F9:F42 G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6224,7 +6792,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
+      <selection pane="topLeft" activeCell="N16" activeCellId="1" sqref="F9:F42 N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6278,7 +6846,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="F9:F42 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6370,7 +6938,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="1" sqref="F9:F42 H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6427,7 +6995,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="F9:F42 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6570,7 +7138,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="F9:F42 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6664,7 +7232,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="F9:F42 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
